--- a/target/classes/Product.xlsx
+++ b/target/classes/Product.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\java1\src\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\java1\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABFE6D26-AA2B-45B1-9828-DF2B7E276570}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0AB6B7F-F7BA-486E-826C-1491B51F2FBC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2304" yWindow="2304" windowWidth="23040" windowHeight="12204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>商品名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -64,6 +64,18 @@
   </si>
   <si>
     <t xml:space="preserve">Apple iPhone 13 Pro </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Apple iPhone 14 Pro </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.9英寸平板电脑 2020年新款(128G WLAN版/全面屏</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -110,10 +122,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -394,19 +407,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="20.875" customWidth="1"/>
-    <col min="4" max="4" width="49.5" customWidth="1"/>
+    <col min="2" max="2" width="20.88671875" customWidth="1"/>
+    <col min="4" max="4" width="49.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -420,7 +433,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -434,7 +447,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -446,6 +459,20 @@
       </c>
       <c r="D3" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="3">
+        <v>1000</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
